--- a/img/ProductosCatalogo.xlsx
+++ b/img/ProductosCatalogo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Catalogo Existencias\IMG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Catalogo Existencias\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04FF17A-2EB9-44D3-A18E-134158904566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A35F2A-2DF3-4E52-ACDF-8ACEBB32FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{11EE9BC9-1975-4667-9E37-3E8DCE71A9E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{11EE9BC9-1975-4667-9E37-3E8DCE71A9E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock (Adult)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t>Producto</t>
   </si>
@@ -389,9 +390,6 @@
     <t>P-0030</t>
   </si>
   <si>
-    <t>pareja</t>
-  </si>
-  <si>
     <t>img027</t>
   </si>
   <si>
@@ -402,6 +400,126 @@
   </si>
   <si>
     <t>Satisfyer Double Classic</t>
+  </si>
+  <si>
+    <t>Reloj Skmei para hombre Digital</t>
+  </si>
+  <si>
+    <t>Luz Verde</t>
+  </si>
+  <si>
+    <t>img028</t>
+  </si>
+  <si>
+    <t>P-0032</t>
+  </si>
+  <si>
+    <t>Dildo Realista Aton</t>
+  </si>
+  <si>
+    <t>Curvo</t>
+  </si>
+  <si>
+    <t>img029</t>
+  </si>
+  <si>
+    <t>P-0033</t>
+  </si>
+  <si>
+    <t>juguetes</t>
+  </si>
+  <si>
+    <t>dildos</t>
+  </si>
+  <si>
+    <t>Vibrador Realista Leo</t>
+  </si>
+  <si>
+    <t>vibrador</t>
+  </si>
+  <si>
+    <t>img030</t>
+  </si>
+  <si>
+    <t>P-0034</t>
+  </si>
+  <si>
+    <t>Vibrador Casiopea</t>
+  </si>
+  <si>
+    <t>img031</t>
+  </si>
+  <si>
+    <t>P-0035</t>
+  </si>
+  <si>
+    <t>Dildo Amon - Negro</t>
+  </si>
+  <si>
+    <t>img032</t>
+  </si>
+  <si>
+    <t>P-0036</t>
+  </si>
+  <si>
+    <t>Piel</t>
+  </si>
+  <si>
+    <t>Dildo Amon - Piel</t>
+  </si>
+  <si>
+    <t>img033</t>
+  </si>
+  <si>
+    <t>P-0037</t>
+  </si>
+  <si>
+    <t>Pinzas para pezones graduables</t>
+  </si>
+  <si>
+    <t>img034</t>
+  </si>
+  <si>
+    <t>P-0038</t>
+  </si>
+  <si>
+    <t>Dados sexuales para pareja de 12 lados</t>
+  </si>
+  <si>
+    <t>12 lados</t>
+  </si>
+  <si>
+    <t>img035</t>
+  </si>
+  <si>
+    <t>P-0039</t>
+  </si>
+  <si>
+    <t>Anillo vibrador para hombre</t>
+  </si>
+  <si>
+    <t>img036</t>
+  </si>
+  <si>
+    <t>P-0040</t>
+  </si>
+  <si>
+    <t>img037</t>
+  </si>
+  <si>
+    <t>Dildo Realista Silicona 15 cm</t>
+  </si>
+  <si>
+    <t>P-0041</t>
+  </si>
+  <si>
+    <t>Parques Erótico - Juego de Mesa</t>
+  </si>
+  <si>
+    <t>img038</t>
+  </si>
+  <si>
+    <t>P-0042</t>
   </si>
 </sst>
 </file>
@@ -443,14 +561,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -468,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}" name="Tabla1" displayName="Tabla1" ref="A1:H32" totalsRowShown="0">
-  <autoFilter ref="A1:H32" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}" name="Tabla1" displayName="Tabla1" ref="A1:H31" totalsRowShown="0">
+  <autoFilter ref="A1:H31" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1F7F7157-D02B-4AA5-83EF-8A9143D5391F}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{638B8831-BA23-4531-B7E5-06877D75A344}" name="Variante"/>
@@ -478,8 +600,27 @@
     <tableColumn id="5" xr3:uid="{C5E0A7C1-2756-4AFB-B7EA-CFB98FAD2175}" name="Precio Vta"/>
     <tableColumn id="6" xr3:uid="{FEC41DB8-0DB9-4CED-B738-A1E9210B4E5B}" name="Referencia"/>
     <tableColumn id="8" xr3:uid="{5B1B4F6B-B902-4302-832E-A2165A3CBD7B}" name="Categoría"/>
-    <tableColumn id="7" xr3:uid="{CB3053CF-9B60-416A-9D0C-4803706A31D9}" name="Registro JS" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{CB3053CF-9B60-416A-9D0C-4803706A31D9}" name="Registro JS" dataDxfId="1">
       <calculatedColumnFormula>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806388FB-6837-4D5F-B128-3A0D0EB2A0FA}" name="Tabla13" displayName="Tabla13" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1B8F927B-E65B-4181-987C-EE10C46B6406}" name="Producto"/>
+    <tableColumn id="2" xr3:uid="{799C94F5-3922-4458-A793-B11B5D61DA92}" name="Variante"/>
+    <tableColumn id="3" xr3:uid="{00D7B26B-9930-4816-BBE6-058DE946AF4B}" name="Imagen"/>
+    <tableColumn id="4" xr3:uid="{4D8FBE30-0C0F-4189-8A8F-DB0842D95386}" name="Cantidad"/>
+    <tableColumn id="5" xr3:uid="{F184823C-0E2C-45D5-BC9C-80873C5C7620}" name="Precio Vta"/>
+    <tableColumn id="6" xr3:uid="{45EDF8BF-A5C9-4BF7-924D-44EF9E25D2AA}" name="Referencia"/>
+    <tableColumn id="8" xr3:uid="{3D17287D-E4F5-450D-A43C-B677FD12A9E6}" name="Categoría"/>
+    <tableColumn id="7" xr3:uid="{26300E38-FCD8-4ED5-BA8F-211A0DE0BDDA}" name="Registro JS" dataDxfId="0">
+      <calculatedColumnFormula>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -803,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25712C9-326D-4D9D-AB77-8D979413C2F6}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1547,7 @@
       <c r="G22" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="H22" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pelicula Antilluvia para espejo (10x15 cm)', reference: 'P-0021', image: 'img/img020.png', quantity: 5, price: 13000, category: 'vehiculos'},</v>
       </c>
@@ -1433,7 +1574,7 @@
       <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="H23" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pelicula Antilluvia para espejo (9.5x13.5 cm)', reference: 'P-0022', image: 'img/img020.png', quantity: 4, price: 13000, category: 'vehiculos'},</v>
       </c>
@@ -1460,7 +1601,7 @@
       <c r="G24" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="H24" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pelicula Antilluvia para espejo (9.5x9.5 cm)', reference: 'P-0023', image: 'img/img020.png', quantity: 9, price: 13000, category: 'vehiculos'},</v>
       </c>
@@ -1487,7 +1628,7 @@
       <c r="G25" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="H25" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pelicula Antilluvia para ventana (20x17 cm)', reference: 'P-0024', image: 'img/img021.png', quantity: 5, price: 20000, category: 'vehiculos'},</v>
       </c>
@@ -1514,7 +1655,7 @@
       <c r="G26" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="H26" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pelicula Antilluvia para casco', reference: 'P-0025', image: 'img/img022.png', quantity: 4, price: 20000, category: 'vehiculos'},</v>
       </c>
@@ -1541,7 +1682,7 @@
       <c r="G27" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="1" t="str">
+      <c r="H27" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pelicula Empañante para casco', reference: 'P-0026', image: 'img/img022.png', quantity: 5, price: 20000, category: 'vehiculos'},</v>
       </c>
@@ -1568,7 +1709,7 @@
       <c r="G28" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H28" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Reloj dama de flores - Blanco', reference: 'P-0027', image: 'img/img023.png', quantity: 6, price: 30000, category: 'accesorios'},</v>
       </c>
@@ -1595,7 +1736,7 @@
       <c r="G29" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H29" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Moneda conmemorativa Bitcoin - Plateada', reference: 'P-0028', image: 'img/img024.png', quantity: 7, price: 15000, category: 'coleccionables'},</v>
       </c>
@@ -1622,63 +1763,36 @@
       <c r="G30" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H30" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Guante Masajeador balines acero', reference: 'P-0029', image: 'img/img025.png', quantity: 3, price: 15000, category: 'salud'},</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
-        <v>{name: 'Satisfyer Endless Joy', reference: 'P-0030', image: 'img/img026.png', quantity: 2, price: 120000, category: 'pareja'},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>120000</v>
-      </c>
-      <c r="F32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
-        <v>{name: 'Satisfyer Double Classic', reference: 'P-0031', image: 'img/img027.png', quantity: 2, price: 120000, category: 'pareja'},</v>
+        <v>{name: 'Reloj Skmei para hombre Digital', reference: 'P-0032', image: 'img/img028.png', quantity: 2, price: 35000, category: 'accesorios'},</v>
       </c>
     </row>
   </sheetData>
@@ -1689,4 +1803,380 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CB793E-2900-4768-96A3-90A488CF1A73}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>120000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Satisfyer Endless Joy', reference: 'P-0030', image: 'img/img026.png', quantity: 2, price: 120000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>120000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Satisfyer Double Classic', reference: 'P-0031', image: 'img/img027.png', quantity: 2, price: 120000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Dildo Realista Aton', reference: 'P-0033', image: 'img/img029.png', quantity: 3, price: 50000, category: 'dildos'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Vibrador Realista Leo', reference: 'P-0034', image: 'img/img030.png', quantity: 1, price: 35000, category: 'dildos'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>30000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Vibrador Casiopea', reference: 'P-0035', image: 'img/img031.png', quantity: 4, price: 30000, category: 'dildos'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Dildo Amon - Negro', reference: 'P-0036', image: 'img/img032.png', quantity: 3, price: 50000, category: 'dildos'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Dildo Amon - Piel', reference: 'P-0037', image: 'img/img033.png', quantity: 3, price: 50000, category: 'dildos'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>13000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Pinzas para pezones graduables', reference: 'P-0038', image: 'img/img034.png', quantity: 11, price: 13000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Dados sexuales para pareja de 12 lados', reference: 'P-0039', image: 'img/img035.png', quantity: 6, price: 10000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Anillo vibrador para hombre', reference: 'P-0040', image: 'img/img036.png', quantity: 2, price: 10000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>25000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Dildo Realista Silicona 15 cm', reference: 'P-0041', image: 'img/img037.png', quantity: 3, price: 25000, category: 'dildos'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>30000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Parques Erótico - Juego de Mesa', reference: 'P-0042', image: 'img/img038.png', quantity: 2, price: 30000, category: 'juguetes'},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/img/ProductosCatalogo.xlsx
+++ b/img/ProductosCatalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Catalogo Existencias\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A35F2A-2DF3-4E52-ACDF-8ACEBB32FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A54AED-4A94-4338-ADEE-525447F6555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{11EE9BC9-1975-4667-9E37-3E8DCE71A9E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
   <si>
     <t>Producto</t>
   </si>
@@ -520,6 +520,156 @@
   </si>
   <si>
     <t>P-0042</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>img039</t>
+  </si>
+  <si>
+    <t>P-0043</t>
+  </si>
+  <si>
+    <t>babydolls</t>
+  </si>
+  <si>
+    <t>Babydoll sexy tipo corse con liguero, esposas y medias</t>
+  </si>
+  <si>
+    <t>Babydoll sexy en V enterizo con liguero y medias</t>
+  </si>
+  <si>
+    <t>img040</t>
+  </si>
+  <si>
+    <t>P-0044</t>
+  </si>
+  <si>
+    <t>Babydoll Sexy en V  en encaje</t>
+  </si>
+  <si>
+    <t>img041</t>
+  </si>
+  <si>
+    <t>P-0045</t>
+  </si>
+  <si>
+    <t>img042</t>
+  </si>
+  <si>
+    <t>P-0046</t>
+  </si>
+  <si>
+    <t>Babydoll sexy lolita erótica</t>
+  </si>
+  <si>
+    <t>img043</t>
+  </si>
+  <si>
+    <t>P-0047</t>
+  </si>
+  <si>
+    <t>Babydoll Sexy Monjita</t>
+  </si>
+  <si>
+    <t>img044</t>
+  </si>
+  <si>
+    <t>P-0048</t>
+  </si>
+  <si>
+    <t>Babydoll Sexy Enfermera</t>
+  </si>
+  <si>
+    <t>img045</t>
+  </si>
+  <si>
+    <t>P-0049</t>
+  </si>
+  <si>
+    <t>Cubre Pezones - Gato</t>
+  </si>
+  <si>
+    <t>Cubre Pezones - Corazón</t>
+  </si>
+  <si>
+    <t>img046</t>
+  </si>
+  <si>
+    <t>img047</t>
+  </si>
+  <si>
+    <t>P-0050</t>
+  </si>
+  <si>
+    <t>P-0051</t>
+  </si>
+  <si>
+    <t>Tanga invisible de encaje con flores - Rojo</t>
+  </si>
+  <si>
+    <t>img048</t>
+  </si>
+  <si>
+    <t>P-0052</t>
+  </si>
+  <si>
+    <t>Boca</t>
+  </si>
+  <si>
+    <t>img050</t>
+  </si>
+  <si>
+    <t>img049</t>
+  </si>
+  <si>
+    <t>P-0053</t>
+  </si>
+  <si>
+    <t>Masturbador Artificial para hombre (Boca) - Sin vibración</t>
+  </si>
+  <si>
+    <t>Masajeador vibrador Electra Wand</t>
+  </si>
+  <si>
+    <t>P-0054</t>
+  </si>
+  <si>
+    <t>img051</t>
+  </si>
+  <si>
+    <t>P-0055</t>
+  </si>
+  <si>
+    <t>Medias tipo liguero - Cindy Love S4816</t>
+  </si>
+  <si>
+    <t>Medias tipo liguero - Cindy Love S4535</t>
+  </si>
+  <si>
+    <t>img052</t>
+  </si>
+  <si>
+    <t>P-0056</t>
+  </si>
+  <si>
+    <t>Babydoll Tipo Vestido Sexy en Encaje Sensual</t>
+  </si>
+  <si>
+    <t>img053</t>
+  </si>
+  <si>
+    <t>P-0057</t>
+  </si>
+  <si>
+    <t>Babydoll Spandex sexy con encaje</t>
+  </si>
+  <si>
+    <t>img054</t>
+  </si>
+  <si>
+    <t>P-0058</t>
   </si>
 </sst>
 </file>
@@ -561,10 +711,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,8 +758,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806388FB-6837-4D5F-B128-3A0D0EB2A0FA}" name="Tabla13" displayName="Tabla13" ref="A1:H13" totalsRowShown="0">
-  <autoFilter ref="A1:H13" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806388FB-6837-4D5F-B128-3A0D0EB2A0FA}" name="Tabla13" displayName="Tabla13" ref="A1:H29" totalsRowShown="0">
+  <autoFilter ref="A1:H29" xr:uid="{8E076095-6F59-4C54-98A5-CB94D4084112}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B8F927B-E65B-4181-987C-EE10C46B6406}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{799C94F5-3922-4458-A793-B11B5D61DA92}" name="Variante"/>
@@ -1790,7 +1939,7 @@
       <c r="G31" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H31" t="str">
         <f>+CONCATENATE("{name: '",Tabla1[[#This Row],[Producto]],"', reference: '",Tabla1[[#This Row],[Referencia]],"', image: 'img/",Tabla1[[#This Row],[Imagen]],".png', quantity: ",Tabla1[[#This Row],[Cantidad]],", price: ",Tabla1[[#This Row],[Precio Vta]],", category: '",Tabla1[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Reloj Skmei para hombre Digital', reference: 'P-0032', image: 'img/img028.png', quantity: 2, price: 35000, category: 'accesorios'},</v>
       </c>
@@ -1807,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CB793E-2900-4768-96A3-90A488CF1A73}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +2064,7 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>50000</v>
       </c>
       <c r="F4" t="s">
@@ -1924,7 +2073,7 @@
       <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Dildo Realista Aton', reference: 'P-0033', image: 'img/img029.png', quantity: 3, price: 50000, category: 'dildos'},</v>
       </c>
@@ -1942,7 +2091,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>35000</v>
       </c>
       <c r="F5" t="s">
@@ -1951,7 +2100,7 @@
       <c r="G5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Vibrador Realista Leo', reference: 'P-0034', image: 'img/img030.png', quantity: 1, price: 35000, category: 'dildos'},</v>
       </c>
@@ -1978,7 +2127,7 @@
       <c r="G6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Vibrador Casiopea', reference: 'P-0035', image: 'img/img031.png', quantity: 4, price: 30000, category: 'dildos'},</v>
       </c>
@@ -1996,7 +2145,7 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>50000</v>
       </c>
       <c r="F7" t="s">
@@ -2005,7 +2154,7 @@
       <c r="G7" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Dildo Amon - Negro', reference: 'P-0036', image: 'img/img032.png', quantity: 3, price: 50000, category: 'dildos'},</v>
       </c>
@@ -2023,7 +2172,7 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>50000</v>
       </c>
       <c r="F8" t="s">
@@ -2032,7 +2181,7 @@
       <c r="G8" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Dildo Amon - Piel', reference: 'P-0037', image: 'img/img033.png', quantity: 3, price: 50000, category: 'dildos'},</v>
       </c>
@@ -2059,7 +2208,7 @@
       <c r="G9" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Pinzas para pezones graduables', reference: 'P-0038', image: 'img/img034.png', quantity: 11, price: 13000, category: 'juguetes'},</v>
       </c>
@@ -2086,7 +2235,7 @@
       <c r="G10" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Dados sexuales para pareja de 12 lados', reference: 'P-0039', image: 'img/img035.png', quantity: 6, price: 10000, category: 'juguetes'},</v>
       </c>
@@ -2113,7 +2262,7 @@
       <c r="G11" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Anillo vibrador para hombre', reference: 'P-0040', image: 'img/img036.png', quantity: 2, price: 10000, category: 'juguetes'},</v>
       </c>
@@ -2140,7 +2289,7 @@
       <c r="G12" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Dildo Realista Silicona 15 cm', reference: 'P-0041', image: 'img/img037.png', quantity: 3, price: 25000, category: 'dildos'},</v>
       </c>
@@ -2167,9 +2316,441 @@
       <c r="G13" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" t="str">
         <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
         <v>{name: 'Parques Erótico - Juego de Mesa', reference: 'P-0042', image: 'img/img038.png', quantity: 2, price: 30000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>25000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll sexy tipo corse con liguero, esposas y medias', reference: 'P-0043', image: 'img/img039.png', quantity: 4, price: 25000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>20000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll sexy en V enterizo con liguero y medias', reference: 'P-0044', image: 'img/img040.png', quantity: 3, price: 20000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll Sexy en V  en encaje', reference: 'P-0045', image: 'img/img041.png', quantity: 7, price: 15000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>15000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll Sexy en V  en encaje', reference: 'P-0046', image: 'img/img042.png', quantity: 5, price: 15000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>40000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll sexy lolita erótica', reference: 'P-0047', image: 'img/img043.png', quantity: 3, price: 40000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>40000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll Sexy Monjita', reference: 'P-0048', image: 'img/img044.png', quantity: 2, price: 40000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>40000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll Sexy Enfermera', reference: 'P-0049', image: 'img/img045.png', quantity: 1, price: 40000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Cubre Pezones - Gato', reference: 'P-0050', image: 'img/img046.png', quantity: 4, price: 10000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>10000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Cubre Pezones - Corazón', reference: 'P-0051', image: 'img/img047.png', quantity: 5, price: 10000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>15000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Tanga invisible de encaje con flores - Rojo', reference: 'P-0052', image: 'img/img048.png', quantity: 6, price: 15000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>45000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Masturbador Artificial para hombre (Boca) - Sin vibración', reference: 'P-0053', image: 'img/img049.png', quantity: 3, price: 45000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>70000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Masajeador vibrador Electra Wand', reference: 'P-0054', image: 'img/img050.png', quantity: 2, price: 70000, category: 'juguetes'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>15000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Medias tipo liguero - Cindy Love S4816', reference: 'P-0055', image: 'img/img051.png', quantity: 6, price: 15000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>15000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Medias tipo liguero - Cindy Love S4535', reference: 'P-0056', image: 'img/img052.png', quantity: 6, price: 15000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>18000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll Tipo Vestido Sexy en Encaje Sensual', reference: 'P-0057', image: 'img/img053.png', quantity: 4, price: 18000, category: 'babydolls'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>18000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>+CONCATENATE("{name: '",Tabla13[[#This Row],[Producto]],"', reference: '",Tabla13[[#This Row],[Referencia]],"', image: 'img/",Tabla13[[#This Row],[Imagen]],".png', quantity: ",Tabla13[[#This Row],[Cantidad]],", price: ",Tabla13[[#This Row],[Precio Vta]],", category: '",Tabla13[[#This Row],[Categoría]],"'},")</f>
+        <v>{name: 'Babydoll Spandex sexy con encaje', reference: 'P-0058', image: 'img/img054.png', quantity: 4, price: 18000, category: 'babydolls'},</v>
       </c>
     </row>
   </sheetData>
